--- a/databyset.xlsx
+++ b/databyset.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\Projects\arkhamdividers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1B934BA8-BF84-40F2-BFBD-B5DDBD1ADEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3680CD31-13F1-477B-B47E-662F17E1677D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="databyset" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="679">
   <si>
     <t>set</t>
   </si>
@@ -2090,7 +2090,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2924,13 +2924,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D319"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:F92"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7404,12 +7410,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7616,13 +7622,55 @@
         <v>115</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -7753,7 +7801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -8011,7 +8059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -8241,7 +8289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -8499,7 +8547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -8611,7 +8659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -8827,7 +8875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -8916,7 +8964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -9244,7 +9292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -9558,7 +9606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -9606,7 +9654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -9892,7 +9940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -10234,7 +10282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -10520,7 +10568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -10595,7 +10643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -10895,7 +10943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -11293,7 +11341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -11382,7 +11430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -11429,7 +11477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -11490,7 +11538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -11860,7 +11908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -11978,11 +12026,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12082,7 +12130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -12157,7 +12205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:D7"/>
   <sheetViews>

--- a/databyset.xlsx
+++ b/databyset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\projects\arkhamdividers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\Projects\arkhamdividers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B6EAFB-8C28-4470-A462-775B8A2DCD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12C2A4F-EA11-4E44-91AA-82B8F1079E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1430" yWindow="950" windowWidth="36970" windowHeight="19930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="19" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="databyset" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,8 @@
     <sheet name="investigator_starter" sheetId="33" r:id="rId17"/>
     <sheet name="other" sheetId="35" r:id="rId18"/>
     <sheet name="parallel" sheetId="36" r:id="rId19"/>
+    <sheet name="investigators" sheetId="49" r:id="rId20"/>
+    <sheet name="player" sheetId="52" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">databyset!$A$1:$E$319</definedName>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="725">
   <si>
     <t>set</t>
   </si>
@@ -2135,6 +2137,87 @@
   </si>
   <si>
     <t>tsc</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>Survivor</t>
+  </si>
+  <si>
+    <t>Mystic</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>Seeker</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>investigators</t>
+  </si>
+  <si>
+    <t>\Investigators\Investigator - Guardian.png</t>
+  </si>
+  <si>
+    <t>\Investigators\Investigator - Mystic.png</t>
+  </si>
+  <si>
+    <t>\Investigators\Investigator - Neutral.png</t>
+  </si>
+  <si>
+    <t>\Investigators\Investigator - Rogue.png</t>
+  </si>
+  <si>
+    <t>\Investigators\Investigator - Seeker.png</t>
+  </si>
+  <si>
+    <t>\Investigators\Investigator - Survivor.png</t>
+  </si>
+  <si>
+    <t>\Investigators\Investigators.png</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>\Investigators\0.png</t>
+  </si>
+  <si>
+    <t>\Investigators\1+.png</t>
+  </si>
+  <si>
+    <t>\Investigators\3+.png</t>
+  </si>
+  <si>
+    <t>Asset-Event-Skill</t>
+  </si>
+  <si>
+    <t>Basic Weakness</t>
+  </si>
+  <si>
+    <t>Weakness</t>
+  </si>
+  <si>
+    <t>Multi-class</t>
+  </si>
+  <si>
+    <t>\Investigators\basicweakness.png</t>
+  </si>
+  <si>
+    <t>\Investigators\weakness.png</t>
+  </si>
+  <si>
+    <t>\Investigators\multi.png</t>
   </si>
 </sst>
 </file>
@@ -2982,16 +3065,16 @@
       <selection activeCell="A289" sqref="A289"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="77.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3008,7 +3091,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3025,7 +3108,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3042,7 +3125,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3059,7 +3142,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3076,7 +3159,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3093,7 +3176,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3110,7 +3193,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3127,7 +3210,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3144,7 +3227,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3161,7 +3244,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3178,7 +3261,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3195,7 +3278,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3212,7 +3295,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -3229,7 +3312,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -3246,7 +3329,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -3263,7 +3346,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3280,7 +3363,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3297,7 +3380,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3314,7 +3397,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -3331,7 +3414,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -3348,7 +3431,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -3365,7 +3448,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -3382,7 +3465,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -3399,7 +3482,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -3416,7 +3499,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -3433,7 +3516,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -3450,7 +3533,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -3467,7 +3550,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -3484,7 +3567,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -3501,7 +3584,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -3518,7 +3601,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -3535,7 +3618,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -3552,7 +3635,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -3569,7 +3652,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -3586,7 +3669,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -3603,7 +3686,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -3620,7 +3703,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -3637,7 +3720,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -3654,7 +3737,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -3671,7 +3754,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -3688,7 +3771,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -3705,7 +3788,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -3722,7 +3805,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -3739,7 +3822,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>99</v>
       </c>
@@ -3756,7 +3839,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -3773,7 +3856,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -3790,7 +3873,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>99</v>
       </c>
@@ -3807,7 +3890,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -3824,7 +3907,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>112</v>
       </c>
@@ -3841,7 +3924,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>112</v>
       </c>
@@ -3858,7 +3941,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -3875,7 +3958,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -3892,7 +3975,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -3909,7 +3992,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>112</v>
       </c>
@@ -3926,7 +4009,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -3943,7 +4026,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -3960,7 +4043,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -3977,7 +4060,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -3994,7 +4077,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -4011,7 +4094,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>112</v>
       </c>
@@ -4028,7 +4111,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -4045,7 +4128,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -4062,7 +4145,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -4079,7 +4162,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -4096,7 +4179,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>112</v>
       </c>
@@ -4113,7 +4196,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -4130,7 +4213,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>112</v>
       </c>
@@ -4147,7 +4230,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>112</v>
       </c>
@@ -4164,7 +4247,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -4181,7 +4264,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>112</v>
       </c>
@@ -4198,7 +4281,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -4215,7 +4298,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -4232,7 +4315,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>112</v>
       </c>
@@ -4249,7 +4332,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>112</v>
       </c>
@@ -4266,7 +4349,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>112</v>
       </c>
@@ -4283,7 +4366,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>112</v>
       </c>
@@ -4300,7 +4383,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>112</v>
       </c>
@@ -4317,7 +4400,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>112</v>
       </c>
@@ -4334,7 +4417,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>112</v>
       </c>
@@ -4351,7 +4434,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>112</v>
       </c>
@@ -4368,7 +4451,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -4385,7 +4468,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -4402,7 +4485,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>112</v>
       </c>
@@ -4419,7 +4502,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>112</v>
       </c>
@@ -4436,7 +4519,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>112</v>
       </c>
@@ -4453,7 +4536,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>112</v>
       </c>
@@ -4470,7 +4553,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>112</v>
       </c>
@@ -4487,7 +4570,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>112</v>
       </c>
@@ -4504,7 +4587,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>112</v>
       </c>
@@ -4521,7 +4604,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>112</v>
       </c>
@@ -4538,7 +4621,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>112</v>
       </c>
@@ -4555,7 +4638,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>200</v>
       </c>
@@ -4572,7 +4655,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>200</v>
       </c>
@@ -4589,7 +4672,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>200</v>
       </c>
@@ -4606,7 +4689,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>200</v>
       </c>
@@ -4623,7 +4706,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>200</v>
       </c>
@@ -4640,7 +4723,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>200</v>
       </c>
@@ -4657,7 +4740,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>200</v>
       </c>
@@ -4674,7 +4757,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>216</v>
       </c>
@@ -4691,7 +4774,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>216</v>
       </c>
@@ -4708,7 +4791,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>216</v>
       </c>
@@ -4725,7 +4808,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>216</v>
       </c>
@@ -4742,7 +4825,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>216</v>
       </c>
@@ -4759,7 +4842,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>216</v>
       </c>
@@ -4776,7 +4859,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>216</v>
       </c>
@@ -4793,7 +4876,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>216</v>
       </c>
@@ -4810,7 +4893,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>216</v>
       </c>
@@ -4827,7 +4910,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -4844,7 +4927,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>216</v>
       </c>
@@ -4861,7 +4944,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>216</v>
       </c>
@@ -4878,7 +4961,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>216</v>
       </c>
@@ -4895,7 +4978,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>216</v>
       </c>
@@ -4912,7 +4995,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>216</v>
       </c>
@@ -4929,7 +5012,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>216</v>
       </c>
@@ -4946,7 +5029,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>250</v>
       </c>
@@ -4963,7 +5046,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>250</v>
       </c>
@@ -4980,7 +5063,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>250</v>
       </c>
@@ -4997,7 +5080,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>250</v>
       </c>
@@ -5014,7 +5097,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>250</v>
       </c>
@@ -5031,7 +5114,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>250</v>
       </c>
@@ -5048,7 +5131,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>250</v>
       </c>
@@ -5065,7 +5148,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>250</v>
       </c>
@@ -5082,7 +5165,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>250</v>
       </c>
@@ -5099,7 +5182,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>250</v>
       </c>
@@ -5116,7 +5199,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -5133,7 +5216,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -5150,7 +5233,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>250</v>
       </c>
@@ -5167,7 +5250,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>250</v>
       </c>
@@ -5184,7 +5267,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>280</v>
       </c>
@@ -5201,7 +5284,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>280</v>
       </c>
@@ -5218,7 +5301,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>280</v>
       </c>
@@ -5235,7 +5318,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>280</v>
       </c>
@@ -5252,7 +5335,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>280</v>
       </c>
@@ -5269,7 +5352,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>280</v>
       </c>
@@ -5286,7 +5369,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>280</v>
       </c>
@@ -5303,7 +5386,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>280</v>
       </c>
@@ -5320,7 +5403,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>280</v>
       </c>
@@ -5337,7 +5420,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>280</v>
       </c>
@@ -5354,7 +5437,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>280</v>
       </c>
@@ -5371,7 +5454,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>280</v>
       </c>
@@ -5388,7 +5471,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>280</v>
       </c>
@@ -5405,7 +5488,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>280</v>
       </c>
@@ -5422,7 +5505,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>280</v>
       </c>
@@ -5439,7 +5522,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>280</v>
       </c>
@@ -5456,7 +5539,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>314</v>
       </c>
@@ -5473,7 +5556,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>314</v>
       </c>
@@ -5490,7 +5573,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>314</v>
       </c>
@@ -5507,7 +5590,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>314</v>
       </c>
@@ -5524,7 +5607,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>314</v>
       </c>
@@ -5541,7 +5624,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>314</v>
       </c>
@@ -5558,7 +5641,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>328</v>
       </c>
@@ -5575,7 +5658,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>328</v>
       </c>
@@ -5592,7 +5675,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>328</v>
       </c>
@@ -5609,7 +5692,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>328</v>
       </c>
@@ -5626,7 +5709,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>328</v>
       </c>
@@ -5643,7 +5726,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>328</v>
       </c>
@@ -5660,7 +5743,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>328</v>
       </c>
@@ -5677,7 +5760,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>328</v>
       </c>
@@ -5694,7 +5777,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>328</v>
       </c>
@@ -5711,7 +5794,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>328</v>
       </c>
@@ -5728,7 +5811,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>328</v>
       </c>
@@ -5745,7 +5828,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>328</v>
       </c>
@@ -5762,7 +5845,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>328</v>
       </c>
@@ -5779,7 +5862,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>356</v>
       </c>
@@ -5796,7 +5879,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>356</v>
       </c>
@@ -5813,7 +5896,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>356</v>
       </c>
@@ -5830,7 +5913,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>356</v>
       </c>
@@ -5847,7 +5930,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>363</v>
       </c>
@@ -5864,7 +5947,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>363</v>
       </c>
@@ -5881,7 +5964,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>363</v>
       </c>
@@ -5898,7 +5981,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>363</v>
       </c>
@@ -5915,7 +5998,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>363</v>
       </c>
@@ -5932,7 +6015,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>363</v>
       </c>
@@ -5949,7 +6032,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>363</v>
       </c>
@@ -5966,7 +6049,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>363</v>
       </c>
@@ -5983,7 +6066,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>363</v>
       </c>
@@ -6000,7 +6083,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>363</v>
       </c>
@@ -6017,7 +6100,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>363</v>
       </c>
@@ -6034,7 +6117,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>363</v>
       </c>
@@ -6051,7 +6134,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>363</v>
       </c>
@@ -6068,7 +6151,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>363</v>
       </c>
@@ -6085,7 +6168,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>363</v>
       </c>
@@ -6102,7 +6185,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>363</v>
       </c>
@@ -6119,7 +6202,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>363</v>
       </c>
@@ -6136,7 +6219,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>363</v>
       </c>
@@ -6153,7 +6236,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>363</v>
       </c>
@@ -6170,7 +6253,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>363</v>
       </c>
@@ -6187,7 +6270,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>363</v>
       </c>
@@ -6204,7 +6287,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>407</v>
       </c>
@@ -6221,7 +6304,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>407</v>
       </c>
@@ -6238,7 +6321,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>407</v>
       </c>
@@ -6255,7 +6338,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>407</v>
       </c>
@@ -6272,7 +6355,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>407</v>
       </c>
@@ -6289,7 +6372,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>407</v>
       </c>
@@ -6306,7 +6389,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>407</v>
       </c>
@@ -6323,7 +6406,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>407</v>
       </c>
@@ -6340,7 +6423,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>407</v>
       </c>
@@ -6357,7 +6440,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>407</v>
       </c>
@@ -6374,7 +6457,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>407</v>
       </c>
@@ -6391,7 +6474,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>407</v>
       </c>
@@ -6408,7 +6491,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>407</v>
       </c>
@@ -6425,7 +6508,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>407</v>
       </c>
@@ -6442,7 +6525,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>407</v>
       </c>
@@ -6459,7 +6542,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>407</v>
       </c>
@@ -6476,7 +6559,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>407</v>
       </c>
@@ -6493,7 +6576,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>407</v>
       </c>
@@ -6510,7 +6593,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>407</v>
       </c>
@@ -6527,7 +6610,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>407</v>
       </c>
@@ -6544,7 +6627,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>449</v>
       </c>
@@ -6561,7 +6644,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>449</v>
       </c>
@@ -6578,7 +6661,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>449</v>
       </c>
@@ -6595,7 +6678,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>449</v>
       </c>
@@ -6612,7 +6695,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>449</v>
       </c>
@@ -6629,7 +6712,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>449</v>
       </c>
@@ -6646,7 +6729,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>449</v>
       </c>
@@ -6663,7 +6746,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>449</v>
       </c>
@@ -6680,7 +6763,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>449</v>
       </c>
@@ -6697,7 +6780,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>449</v>
       </c>
@@ -6714,7 +6797,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>449</v>
       </c>
@@ -6731,7 +6814,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>449</v>
       </c>
@@ -6748,7 +6831,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>449</v>
       </c>
@@ -6765,7 +6848,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>449</v>
       </c>
@@ -6782,7 +6865,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>449</v>
       </c>
@@ -6799,7 +6882,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>449</v>
       </c>
@@ -6816,7 +6899,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>449</v>
       </c>
@@ -6833,7 +6916,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>449</v>
       </c>
@@ -6850,7 +6933,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>487</v>
       </c>
@@ -6867,7 +6950,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>487</v>
       </c>
@@ -6884,7 +6967,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>487</v>
       </c>
@@ -6901,7 +6984,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>487</v>
       </c>
@@ -6918,7 +7001,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>487</v>
       </c>
@@ -6935,7 +7018,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>487</v>
       </c>
@@ -6952,7 +7035,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>487</v>
       </c>
@@ -6969,7 +7052,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>487</v>
       </c>
@@ -6986,7 +7069,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>487</v>
       </c>
@@ -7003,7 +7086,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>487</v>
       </c>
@@ -7020,7 +7103,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>487</v>
       </c>
@@ -7037,7 +7120,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>487</v>
       </c>
@@ -7054,7 +7137,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>487</v>
       </c>
@@ -7071,7 +7154,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>487</v>
       </c>
@@ -7088,7 +7171,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>487</v>
       </c>
@@ -7105,7 +7188,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>487</v>
       </c>
@@ -7122,7 +7205,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>487</v>
       </c>
@@ -7139,7 +7222,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>487</v>
       </c>
@@ -7156,7 +7239,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>487</v>
       </c>
@@ -7173,7 +7256,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>487</v>
       </c>
@@ -7190,7 +7273,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>487</v>
       </c>
@@ -7207,7 +7290,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>487</v>
       </c>
@@ -7224,7 +7307,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>533</v>
       </c>
@@ -7241,7 +7324,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>533</v>
       </c>
@@ -7258,7 +7341,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>533</v>
       </c>
@@ -7275,7 +7358,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>533</v>
       </c>
@@ -7292,7 +7375,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>533</v>
       </c>
@@ -7309,7 +7392,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>533</v>
       </c>
@@ -7326,7 +7409,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>533</v>
       </c>
@@ -7343,7 +7426,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>533</v>
       </c>
@@ -7360,7 +7443,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>533</v>
       </c>
@@ -7377,7 +7460,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>533</v>
       </c>
@@ -7394,7 +7477,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>533</v>
       </c>
@@ -7411,7 +7494,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>533</v>
       </c>
@@ -7428,7 +7511,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>533</v>
       </c>
@@ -7445,7 +7528,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>533</v>
       </c>
@@ -7462,7 +7545,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>533</v>
       </c>
@@ -7479,7 +7562,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>533</v>
       </c>
@@ -7496,7 +7579,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>533</v>
       </c>
@@ -7513,7 +7596,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>533</v>
       </c>
@@ -7530,7 +7613,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>571</v>
       </c>
@@ -7547,7 +7630,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>571</v>
       </c>
@@ -7564,7 +7647,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>571</v>
       </c>
@@ -7581,7 +7664,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>576</v>
       </c>
@@ -7598,7 +7681,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>576</v>
       </c>
@@ -7615,7 +7698,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>576</v>
       </c>
@@ -7632,7 +7715,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>576</v>
       </c>
@@ -7649,7 +7732,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>576</v>
       </c>
@@ -7666,7 +7749,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>576</v>
       </c>
@@ -7683,7 +7766,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>576</v>
       </c>
@@ -7700,7 +7783,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>576</v>
       </c>
@@ -7717,7 +7800,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>576</v>
       </c>
@@ -7734,7 +7817,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>576</v>
       </c>
@@ -7751,7 +7834,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>576</v>
       </c>
@@ -7768,7 +7851,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>576</v>
       </c>
@@ -7785,7 +7868,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>576</v>
       </c>
@@ -7802,7 +7885,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>576</v>
       </c>
@@ -7819,7 +7902,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>576</v>
       </c>
@@ -7836,7 +7919,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>576</v>
       </c>
@@ -7853,7 +7936,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>576</v>
       </c>
@@ -7870,7 +7953,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>576</v>
       </c>
@@ -7887,7 +7970,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>576</v>
       </c>
@@ -7904,7 +7987,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>616</v>
       </c>
@@ -7921,7 +8004,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>616</v>
       </c>
@@ -7938,7 +8021,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>616</v>
       </c>
@@ -7955,7 +8038,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>616</v>
       </c>
@@ -7972,7 +8055,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>616</v>
       </c>
@@ -7989,7 +8072,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>616</v>
       </c>
@@ -8006,7 +8089,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>616</v>
       </c>
@@ -8023,7 +8106,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>616</v>
       </c>
@@ -8040,7 +8123,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>616</v>
       </c>
@@ -8057,7 +8140,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>616</v>
       </c>
@@ -8074,7 +8157,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>616</v>
       </c>
@@ -8091,7 +8174,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>616</v>
       </c>
@@ -8108,7 +8191,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>616</v>
       </c>
@@ -8125,7 +8208,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>616</v>
       </c>
@@ -8142,7 +8225,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>616</v>
       </c>
@@ -8159,7 +8242,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>616</v>
       </c>
@@ -8176,7 +8259,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>616</v>
       </c>
@@ -8193,7 +8276,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>616</v>
       </c>
@@ -8210,7 +8293,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>616</v>
       </c>
@@ -8227,7 +8310,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>616</v>
       </c>
@@ -8244,7 +8327,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>616</v>
       </c>
@@ -8261,7 +8344,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>616</v>
       </c>
@@ -8278,7 +8361,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>616</v>
       </c>
@@ -8295,7 +8378,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>616</v>
       </c>
@@ -8312,7 +8395,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>616</v>
       </c>
@@ -8329,7 +8412,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>616</v>
       </c>
@@ -8346,7 +8429,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>670</v>
       </c>
@@ -8363,7 +8446,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>670</v>
       </c>
@@ -8380,7 +8463,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>670</v>
       </c>
@@ -8397,7 +8480,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>670</v>
       </c>
@@ -8426,16 +8509,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8452,7 +8535,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>616</v>
       </c>
@@ -8469,7 +8552,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>616</v>
       </c>
@@ -8486,7 +8569,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>616</v>
       </c>
@@ -8503,7 +8586,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>616</v>
       </c>
@@ -8520,7 +8603,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>616</v>
       </c>
@@ -8537,7 +8620,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>616</v>
       </c>
@@ -8554,7 +8637,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>616</v>
       </c>
@@ -8571,7 +8654,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>616</v>
       </c>
@@ -8588,7 +8671,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>616</v>
       </c>
@@ -8605,7 +8688,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>616</v>
       </c>
@@ -8622,7 +8705,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>616</v>
       </c>
@@ -8639,7 +8722,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>616</v>
       </c>
@@ -8656,7 +8739,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>616</v>
       </c>
@@ -8673,7 +8756,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>616</v>
       </c>
@@ -8690,7 +8773,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>616</v>
       </c>
@@ -8707,7 +8790,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>616</v>
       </c>
@@ -8724,7 +8807,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>616</v>
       </c>
@@ -8741,7 +8824,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>616</v>
       </c>
@@ -8758,7 +8841,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>616</v>
       </c>
@@ -8775,7 +8858,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>616</v>
       </c>
@@ -8792,7 +8875,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>616</v>
       </c>
@@ -8809,7 +8892,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>616</v>
       </c>
@@ -8826,7 +8909,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>616</v>
       </c>
@@ -8843,7 +8926,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>616</v>
       </c>
@@ -8860,7 +8943,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>616</v>
       </c>
@@ -8877,7 +8960,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>616</v>
       </c>
@@ -8906,16 +8989,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8932,7 +9015,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -8949,7 +9032,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>314</v>
       </c>
@@ -8966,7 +9049,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>314</v>
       </c>
@@ -8983,7 +9066,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>314</v>
       </c>
@@ -9000,7 +9083,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>314</v>
       </c>
@@ -9017,7 +9100,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>314</v>
       </c>
@@ -9046,16 +9129,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9072,7 +9155,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>250</v>
       </c>
@@ -9089,7 +9172,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>250</v>
       </c>
@@ -9106,7 +9189,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>250</v>
       </c>
@@ -9123,7 +9206,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>250</v>
       </c>
@@ -9140,7 +9223,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>250</v>
       </c>
@@ -9157,7 +9240,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>250</v>
       </c>
@@ -9174,7 +9257,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>250</v>
       </c>
@@ -9191,7 +9274,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -9208,7 +9291,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -9225,7 +9308,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>250</v>
       </c>
@@ -9242,7 +9325,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>250</v>
       </c>
@@ -9259,7 +9342,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>250</v>
       </c>
@@ -9276,7 +9359,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -9293,7 +9376,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>250</v>
       </c>
@@ -9322,16 +9405,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9348,7 +9431,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -9365,7 +9448,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>328</v>
       </c>
@@ -9382,7 +9465,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>328</v>
       </c>
@@ -9399,7 +9482,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>328</v>
       </c>
@@ -9416,7 +9499,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>328</v>
       </c>
@@ -9433,7 +9516,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>328</v>
       </c>
@@ -9450,7 +9533,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>328</v>
       </c>
@@ -9467,7 +9550,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>328</v>
       </c>
@@ -9484,7 +9567,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>328</v>
       </c>
@@ -9501,7 +9584,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>328</v>
       </c>
@@ -9518,7 +9601,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>328</v>
       </c>
@@ -9535,7 +9618,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>328</v>
       </c>
@@ -9552,7 +9635,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>328</v>
       </c>
@@ -9581,16 +9664,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9607,7 +9690,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>280</v>
       </c>
@@ -9624,7 +9707,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>280</v>
       </c>
@@ -9641,7 +9724,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>280</v>
       </c>
@@ -9658,7 +9741,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>280</v>
       </c>
@@ -9675,7 +9758,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>280</v>
       </c>
@@ -9692,7 +9775,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -9709,7 +9792,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -9726,7 +9809,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -9743,7 +9826,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -9760,7 +9843,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>280</v>
       </c>
@@ -9777,7 +9860,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>280</v>
       </c>
@@ -9794,7 +9877,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>280</v>
       </c>
@@ -9811,7 +9894,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>280</v>
       </c>
@@ -9828,7 +9911,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>280</v>
       </c>
@@ -9845,7 +9928,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>280</v>
       </c>
@@ -9862,7 +9945,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>280</v>
       </c>
@@ -9891,16 +9974,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9917,7 +10000,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -9934,7 +10017,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>216</v>
       </c>
@@ -9951,7 +10034,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -9968,7 +10051,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -9985,7 +10068,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -10002,7 +10085,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -10019,7 +10102,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -10036,7 +10119,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>216</v>
       </c>
@@ -10053,7 +10136,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -10070,7 +10153,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>216</v>
       </c>
@@ -10087,7 +10170,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -10104,7 +10187,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>216</v>
       </c>
@@ -10121,7 +10204,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -10138,7 +10221,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>216</v>
       </c>
@@ -10155,7 +10238,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -10172,7 +10255,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>216</v>
       </c>
@@ -10201,16 +10284,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10227,7 +10310,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -10244,7 +10327,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -10261,7 +10344,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -10278,7 +10361,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -10295,7 +10378,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -10312,7 +10395,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -10329,7 +10412,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -10346,7 +10429,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -10363,7 +10446,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -10380,7 +10463,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -10397,7 +10480,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -10414,7 +10497,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -10431,7 +10514,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -10448,7 +10531,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -10465,7 +10548,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -10482,7 +10565,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -10499,7 +10582,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -10516,7 +10599,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -10533,7 +10616,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -10550,7 +10633,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>356</v>
       </c>
@@ -10567,7 +10650,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>356</v>
       </c>
@@ -10584,7 +10667,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>356</v>
       </c>
@@ -10601,7 +10684,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>356</v>
       </c>
@@ -10618,7 +10701,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>571</v>
       </c>
@@ -10635,7 +10718,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>571</v>
       </c>
@@ -10652,7 +10735,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>571</v>
       </c>
@@ -10669,7 +10752,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>670</v>
       </c>
@@ -10686,7 +10769,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>670</v>
       </c>
@@ -10703,7 +10786,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>670</v>
       </c>
@@ -10720,7 +10803,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>670</v>
       </c>
@@ -10749,16 +10832,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10775,7 +10858,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -10792,7 +10875,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -10809,7 +10892,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -10826,7 +10909,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -10843,7 +10926,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -10870,18 +10953,20 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10898,7 +10983,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -10915,7 +11000,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -10932,7 +11017,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -10949,7 +11034,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -10966,109 +11051,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -11085,7 +11068,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -11102,7 +11085,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -11119,7 +11102,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -11136,7 +11119,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -11153,7 +11136,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -11170,7 +11153,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -11187,7 +11170,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -11204,7 +11187,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -11221,7 +11204,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -11238,7 +11221,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -11255,7 +11238,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -11272,7 +11255,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>112</v>
       </c>
@@ -11289,7 +11272,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -11306,7 +11289,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -11323,7 +11306,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>112</v>
       </c>
@@ -11340,7 +11323,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -11367,18 +11350,20 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11395,7 +11380,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -11412,7 +11397,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -11429,7 +11414,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -11446,7 +11431,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -11463,7 +11448,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>200</v>
       </c>
@@ -11480,7 +11465,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -11497,7 +11482,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -11524,20 +11509,20 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11554,7 +11539,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -11571,7 +11556,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -11588,7 +11573,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -11605,7 +11590,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -11622,7 +11607,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -11639,7 +11624,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -11656,7 +11641,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -11673,7 +11658,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -11690,7 +11675,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -11707,7 +11692,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -11724,7 +11709,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -11741,7 +11726,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -11758,7 +11743,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -11775,7 +11760,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -11792,7 +11777,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -11809,7 +11794,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -11824,6 +11809,570 @@
       </c>
       <c r="E17" t="s">
         <v>689</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7ACE87-14C2-45C3-A387-0D8ADED18309}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C3:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D2" t="s">
+        <v>711</v>
+      </c>
+      <c r="E2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D3" t="s">
+        <v>711</v>
+      </c>
+      <c r="E3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C4" t="s">
+        <v>707</v>
+      </c>
+      <c r="D4" t="s">
+        <v>711</v>
+      </c>
+      <c r="E4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
+        <v>701</v>
+      </c>
+      <c r="C5" t="s">
+        <v>708</v>
+      </c>
+      <c r="D5" t="s">
+        <v>711</v>
+      </c>
+      <c r="E5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" t="s">
+        <v>702</v>
+      </c>
+      <c r="C6" t="s">
+        <v>709</v>
+      </c>
+      <c r="D6" t="s">
+        <v>711</v>
+      </c>
+      <c r="E6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" t="s">
+        <v>699</v>
+      </c>
+      <c r="C7" t="s">
+        <v>710</v>
+      </c>
+      <c r="D7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB26CC1-11AC-4413-8201-F9050876DF75}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C4" t="s">
+        <v>705</v>
+      </c>
+      <c r="D4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C5" t="s">
+        <v>706</v>
+      </c>
+      <c r="D5" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>714</v>
+      </c>
+      <c r="C7" t="s">
+        <v>706</v>
+      </c>
+      <c r="D7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>712</v>
+      </c>
+      <c r="C8" t="s">
+        <v>707</v>
+      </c>
+      <c r="D8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>713</v>
+      </c>
+      <c r="C9" t="s">
+        <v>707</v>
+      </c>
+      <c r="D9" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>714</v>
+      </c>
+      <c r="C10" t="s">
+        <v>707</v>
+      </c>
+      <c r="D10" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>712</v>
+      </c>
+      <c r="C11" t="s">
+        <v>708</v>
+      </c>
+      <c r="D11" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>713</v>
+      </c>
+      <c r="C12" t="s">
+        <v>708</v>
+      </c>
+      <c r="D12" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>714</v>
+      </c>
+      <c r="C13" t="s">
+        <v>708</v>
+      </c>
+      <c r="D13" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>712</v>
+      </c>
+      <c r="C14" t="s">
+        <v>709</v>
+      </c>
+      <c r="D14" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>713</v>
+      </c>
+      <c r="C15" t="s">
+        <v>709</v>
+      </c>
+      <c r="D15" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>714</v>
+      </c>
+      <c r="C16" t="s">
+        <v>709</v>
+      </c>
+      <c r="D16" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>712</v>
+      </c>
+      <c r="C17" t="s">
+        <v>710</v>
+      </c>
+      <c r="D17" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>713</v>
+      </c>
+      <c r="C18" t="s">
+        <v>710</v>
+      </c>
+      <c r="D18" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>714</v>
+      </c>
+      <c r="C19" t="s">
+        <v>710</v>
+      </c>
+      <c r="D19" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>718</v>
+      </c>
+      <c r="C20" t="s">
+        <v>705</v>
+      </c>
+      <c r="D20" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>718</v>
+      </c>
+      <c r="C21" t="s">
+        <v>706</v>
+      </c>
+      <c r="D21" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>718</v>
+      </c>
+      <c r="C22" t="s">
+        <v>707</v>
+      </c>
+      <c r="D22" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>718</v>
+      </c>
+      <c r="C23" t="s">
+        <v>708</v>
+      </c>
+      <c r="D23" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>718</v>
+      </c>
+      <c r="C24" t="s">
+        <v>709</v>
+      </c>
+      <c r="D24" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>718</v>
+      </c>
+      <c r="C25" t="s">
+        <v>710</v>
+      </c>
+      <c r="D25" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>718</v>
+      </c>
+      <c r="C26" t="s">
+        <v>705</v>
+      </c>
+      <c r="D26" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>718</v>
+      </c>
+      <c r="C27" t="s">
+        <v>706</v>
+      </c>
+      <c r="D27" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C28" t="s">
+        <v>707</v>
+      </c>
+      <c r="D28" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>718</v>
+      </c>
+      <c r="C29" t="s">
+        <v>708</v>
+      </c>
+      <c r="D29" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>718</v>
+      </c>
+      <c r="C30" t="s">
+        <v>709</v>
+      </c>
+      <c r="D30" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>718</v>
+      </c>
+      <c r="C31" t="s">
+        <v>710</v>
+      </c>
+      <c r="D31" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>719</v>
+      </c>
+      <c r="C32" t="s">
+        <v>722</v>
+      </c>
+      <c r="D32" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>720</v>
+      </c>
+      <c r="C33" t="s">
+        <v>723</v>
+      </c>
+      <c r="D33" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>721</v>
+      </c>
+      <c r="C34" t="s">
+        <v>724</v>
+      </c>
+      <c r="D34" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>721</v>
+      </c>
+      <c r="C35" t="s">
+        <v>724</v>
+      </c>
+      <c r="D35" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>721</v>
+      </c>
+      <c r="C36" t="s">
+        <v>724</v>
+      </c>
+      <c r="D36" t="s">
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -11838,16 +12387,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11864,7 +12413,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>449</v>
       </c>
@@ -11881,7 +12430,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>449</v>
       </c>
@@ -11898,7 +12447,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>449</v>
       </c>
@@ -11915,7 +12464,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>449</v>
       </c>
@@ -11932,7 +12481,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>449</v>
       </c>
@@ -11949,7 +12498,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>449</v>
       </c>
@@ -11966,7 +12515,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>449</v>
       </c>
@@ -11983,7 +12532,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>449</v>
       </c>
@@ -12000,7 +12549,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>449</v>
       </c>
@@ -12017,7 +12566,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>449</v>
       </c>
@@ -12034,7 +12583,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>449</v>
       </c>
@@ -12051,7 +12600,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>449</v>
       </c>
@@ -12068,7 +12617,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>449</v>
       </c>
@@ -12085,7 +12634,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>449</v>
       </c>
@@ -12102,7 +12651,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>449</v>
       </c>
@@ -12119,7 +12668,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>449</v>
       </c>
@@ -12136,7 +12685,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>449</v>
       </c>
@@ -12153,7 +12702,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>449</v>
       </c>
@@ -12182,16 +12731,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12208,7 +12757,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>576</v>
       </c>
@@ -12225,7 +12774,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>576</v>
       </c>
@@ -12242,7 +12791,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>576</v>
       </c>
@@ -12259,7 +12808,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>576</v>
       </c>
@@ -12276,7 +12825,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>576</v>
       </c>
@@ -12293,7 +12842,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>576</v>
       </c>
@@ -12310,7 +12859,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>576</v>
       </c>
@@ -12327,7 +12876,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>576</v>
       </c>
@@ -12344,7 +12893,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>576</v>
       </c>
@@ -12361,7 +12910,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>576</v>
       </c>
@@ -12378,7 +12927,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>576</v>
       </c>
@@ -12395,7 +12944,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>576</v>
       </c>
@@ -12412,7 +12961,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>576</v>
       </c>
@@ -12429,7 +12978,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>576</v>
       </c>
@@ -12446,7 +12995,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>576</v>
       </c>
@@ -12463,7 +13012,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>576</v>
       </c>
@@ -12480,7 +13029,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>576</v>
       </c>
@@ -12497,7 +13046,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>576</v>
       </c>
@@ -12514,7 +13063,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>576</v>
       </c>
@@ -12543,16 +13092,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12569,7 +13118,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>487</v>
       </c>
@@ -12586,7 +13135,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>487</v>
       </c>
@@ -12603,7 +13152,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>487</v>
       </c>
@@ -12620,7 +13169,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>487</v>
       </c>
@@ -12637,7 +13186,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>487</v>
       </c>
@@ -12654,7 +13203,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>487</v>
       </c>
@@ -12671,7 +13220,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>487</v>
       </c>
@@ -12688,7 +13237,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>487</v>
       </c>
@@ -12705,7 +13254,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>487</v>
       </c>
@@ -12722,7 +13271,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>487</v>
       </c>
@@ -12739,7 +13288,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>487</v>
       </c>
@@ -12756,7 +13305,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>487</v>
       </c>
@@ -12773,7 +13322,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>487</v>
       </c>
@@ -12790,7 +13339,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>487</v>
       </c>
@@ -12807,7 +13356,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>487</v>
       </c>
@@ -12824,7 +13373,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>487</v>
       </c>
@@ -12841,7 +13390,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>487</v>
       </c>
@@ -12858,7 +13407,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>487</v>
       </c>
@@ -12875,7 +13424,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>487</v>
       </c>
@@ -12892,7 +13441,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>487</v>
       </c>
@@ -12909,7 +13458,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>487</v>
       </c>
@@ -12926,7 +13475,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>487</v>
       </c>
@@ -12957,16 +13506,16 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12983,7 +13532,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>363</v>
       </c>
@@ -13000,7 +13549,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>363</v>
       </c>
@@ -13017,7 +13566,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>363</v>
       </c>
@@ -13034,7 +13583,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>363</v>
       </c>
@@ -13051,7 +13600,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>363</v>
       </c>
@@ -13068,7 +13617,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>363</v>
       </c>
@@ -13085,7 +13634,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>363</v>
       </c>
@@ -13102,7 +13651,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>363</v>
       </c>
@@ -13119,7 +13668,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>363</v>
       </c>
@@ -13136,7 +13685,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>363</v>
       </c>
@@ -13153,7 +13702,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>363</v>
       </c>
@@ -13170,7 +13719,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>363</v>
       </c>
@@ -13187,7 +13736,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>363</v>
       </c>
@@ -13204,7 +13753,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>363</v>
       </c>
@@ -13221,7 +13770,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>363</v>
       </c>
@@ -13238,7 +13787,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>363</v>
       </c>
@@ -13255,7 +13804,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>363</v>
       </c>
@@ -13272,7 +13821,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>363</v>
       </c>
@@ -13289,7 +13838,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>363</v>
       </c>
@@ -13306,7 +13855,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>363</v>
       </c>
@@ -13323,7 +13872,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>363</v>
       </c>
@@ -13354,16 +13903,16 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13380,7 +13929,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>407</v>
       </c>
@@ -13397,7 +13946,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>407</v>
       </c>
@@ -13414,7 +13963,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>407</v>
       </c>
@@ -13431,7 +13980,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>407</v>
       </c>
@@ -13448,7 +13997,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>407</v>
       </c>
@@ -13465,7 +14014,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>407</v>
       </c>
@@ -13482,7 +14031,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>407</v>
       </c>
@@ -13499,7 +14048,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>407</v>
       </c>
@@ -13516,7 +14065,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>407</v>
       </c>
@@ -13533,7 +14082,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>407</v>
       </c>
@@ -13550,7 +14099,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>407</v>
       </c>
@@ -13567,7 +14116,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>407</v>
       </c>
@@ -13584,7 +14133,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>407</v>
       </c>
@@ -13601,7 +14150,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>407</v>
       </c>
@@ -13618,7 +14167,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>407</v>
       </c>
@@ -13635,7 +14184,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>407</v>
       </c>
@@ -13652,7 +14201,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>407</v>
       </c>
@@ -13669,7 +14218,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>407</v>
       </c>
@@ -13686,7 +14235,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>407</v>
       </c>
@@ -13703,7 +14252,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>407</v>
       </c>
@@ -13732,16 +14281,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13758,7 +14307,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -13775,7 +14324,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>533</v>
       </c>
@@ -13792,7 +14341,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>533</v>
       </c>
@@ -13809,7 +14358,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>533</v>
       </c>
@@ -13826,7 +14375,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>533</v>
       </c>
@@ -13843,7 +14392,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>533</v>
       </c>
@@ -13860,7 +14409,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>533</v>
       </c>
@@ -13877,7 +14426,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>533</v>
       </c>
@@ -13894,7 +14443,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>533</v>
       </c>
@@ -13911,7 +14460,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>533</v>
       </c>
@@ -13928,7 +14477,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>533</v>
       </c>
@@ -13945,7 +14494,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>533</v>
       </c>
@@ -13962,7 +14511,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>533</v>
       </c>
@@ -13979,7 +14528,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>533</v>
       </c>
@@ -13996,7 +14545,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>533</v>
       </c>
@@ -14013,7 +14562,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>533</v>
       </c>
@@ -14030,7 +14579,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>533</v>
       </c>
@@ -14047,7 +14596,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>533</v>
       </c>
@@ -14076,16 +14625,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14102,7 +14651,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -14119,7 +14668,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -14136,7 +14685,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -14153,7 +14702,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -14170,7 +14719,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -14187,7 +14736,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -14204,7 +14753,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -14221,7 +14770,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -14238,7 +14787,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -14255,7 +14804,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -14272,7 +14821,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -14289,7 +14838,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -14306,7 +14855,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -14323,7 +14872,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -14340,7 +14889,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -14357,7 +14906,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -14374,7 +14923,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -14391,7 +14940,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -14408,7 +14957,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -14425,7 +14974,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -14442,7 +14991,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -14459,7 +15008,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -14476,7 +15025,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -14493,7 +15042,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
